--- a/config_1.5/fish_3d_yutu_random_5.xlsx
+++ b/config_1.5/fish_3d_yutu_random_5.xlsx
@@ -455,7 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,7 +1395,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1813,10 +1813,10 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="22">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H17" s="22">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1837,10 +1837,10 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="22">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H18" s="22">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1861,10 +1861,10 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="22">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H19" s="22">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1885,10 +1885,10 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="22">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H20" s="22">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
   </sheetData>
